--- a/Sprint 2/Dicionário de dados.xlsx
+++ b/Sprint 2/Dicionário de dados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV_1ano_2024\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV_1ano_2024\Documents\Gustavo Rodrigues\Scrum\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>Nome do campo</t>
   </si>
@@ -77,9 +77,6 @@
     <t>CNPJ do Fornecedor</t>
   </si>
   <si>
-    <t>Endereço do Fornecedor</t>
-  </si>
-  <si>
     <t>Observações</t>
   </si>
   <si>
@@ -89,22 +86,13 @@
     <t>ID do Funcionário</t>
   </si>
   <si>
-    <t>Email do Funcionário</t>
-  </si>
-  <si>
     <t>Telefone</t>
   </si>
   <si>
     <t>Senha</t>
   </si>
   <si>
-    <t>Confirma senha</t>
-  </si>
-  <si>
     <t>Funcionário cadastro</t>
-  </si>
-  <si>
-    <t>/☻</t>
   </si>
 </sst>
 </file>
@@ -176,12 +164,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2F75B5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9BC2E6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -192,8 +174,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -205,19 +193,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -257,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,22 +251,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -574,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +570,7 @@
     <col min="8" max="12" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,7 +585,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -618,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -632,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -646,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -660,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -674,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -688,9 +669,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -702,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -716,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -730,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
@@ -744,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -758,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -771,24 +752,32 @@
       <c r="D13" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>8</v>
@@ -800,133 +789,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9">
         <v>20</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="11">
         <v>20</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="13">
-        <v>20</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="11">
-        <v>25</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="13">
-        <v>11</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9">
         <v>30</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13">
-        <v>20</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="D18" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
